--- a/ddt_excel/locmantestcase.xlsx
+++ b/ddt_excel/locmantestcase.xlsx
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"resultCode": "0000","resultMessage": "登录成功！"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"resultCode": "0005","resultMessage": "参数需json格式!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +255,10 @@
   </si>
   <si>
     <t>{"resultCode": "0005","resultMessage": "用户权限不可用，请联系管理员核实！"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode": "0000","resultMessage": "登录成功！"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +652,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -707,10 +707,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
@@ -727,13 +727,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
@@ -753,7 +753,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
@@ -773,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
@@ -793,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
